--- a/Client/Unity/LubanConfig/MiniTemplate/Datas/__enums__.xlsx
+++ b/Client/Unity/LubanConfig/MiniTemplate/Datas/__enums__.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\TestLuban\LubanConfig\MiniTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Gaolx_Fantastic_Dream\Client\Unity\LubanConfig\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24045" windowHeight="12900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -60,7 +60,7 @@
     <t>全名(包含模块和名字)</t>
   </si>
   <si>
-    <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
+    <t>是否为标志类（即每个枚举项为位标记，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
   </si>
   <si>
     <t>枚举项是否唯一</t>
@@ -76,6 +76,30 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>物理伤害</t>
+  </si>
+  <si>
+    <t>魔法伤害</t>
+  </si>
+  <si>
+    <t>MonsterType</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Boss</t>
   </si>
 </sst>
 </file>
@@ -91,41 +115,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -134,17 +137,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -422,110 +419,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:K12"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="99" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
